--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="firstPageAPI" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="CouponSave" sheetId="2" r:id="rId2"/>
+    <sheet name="CouponReceive" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>接口测试主题</t>
   </si>
@@ -85,6 +86,50 @@
   </si>
   <si>
     <t>{"account": "18292417675", "password": "crmeb@123461"}</t>
+  </si>
+  <si>
+    <t>添加优惠券成功</t>
+  </si>
+  <si>
+    <t>8080/api/admin/marketing/coupon/save</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"useType": 1,"isFixedTime": "false","name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","money": 100,"minPrice": 0,"day": 5,"isForever": "false","primaryKey": "","type": 1,"isLimited": "false","useStartTime": "","useEndTime": "","receiveStartTime": "","receiveEndTime": "","sort": 5,"total": 0,"status": "true","checked": []}</t>
+    </r>
+  </si>
+  <si>
+    <t>领取优惠券成功</t>
+  </si>
+  <si>
+    <t>8081/api/front/coupon/receive</t>
+  </si>
+  <si>
+    <t>{"couponId": "coupon_Id"}</t>
   </si>
 </sst>
 </file>
@@ -97,13 +142,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -261,6 +312,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -602,145 +659,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -756,10 +813,25 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,26 +1185,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.4363636363636" style="3" customWidth="1"/>
-    <col min="2" max="2" width="56.1454545454545" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.1454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.1454545454545" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.5727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.5727272727273" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="55.4363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5727272727273" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1141,8 +1213,110 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1156,18 +1330,78 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.7181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.4363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7181818181818" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.4363636363636" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="95" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44.1454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="55.4545454545455" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.4363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5727272727273" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.5727272727273" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1189,105 +1423,20 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="11">
         <v>200</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
